--- a/biology/Botanique/Ingénieur_du_génie_rural,_des_eaux_et_des_forêts/Ingénieur_du_génie_rural,_des_eaux_et_des_forêts.xlsx
+++ b/biology/Botanique/Ingénieur_du_génie_rural,_des_eaux_et_des_forêts/Ingénieur_du_génie_rural,_des_eaux_et_des_forêts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ing%C3%A9nieur_du_g%C3%A9nie_rural,_des_eaux_et_des_for%C3%AAts</t>
+          <t>Ingénieur_du_génie_rural,_des_eaux_et_des_forêts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ingénieurs du génie rural, des eaux et des forêts (IGREF) étaient des fonctionnaires formant, notamment avec le corps des mines et le corps des ponts et chaussées, un des grands corps techniques de la fonction publique française. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ing%C3%A9nieur_du_g%C3%A9nie_rural,_des_eaux_et_des_for%C3%AAts</t>
+          <t>Ingénieur_du_génie_rural,_des_eaux_et_des_forêts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils étaient formés à l'École nationale du génie rural, des eaux et des forêts (ENGREF), école membre d'AgroParisTech.
 Environ 2 000 IGREF étaient en activité au moment de la fusion de leur corps avec celui des ponts et chaussées.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ing%C3%A9nieur_du_g%C3%A9nie_rural,_des_eaux_et_des_for%C3%AAts</t>
+          <t>Ingénieur_du_génie_rural,_des_eaux_et_des_forêts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première évocation du terme « Eaux et forêts » remonte à 1219 avec l'Ordonnance de Gisors de Philippe Auguste. En 1291, Philippe le Bel précise le rôle d'un enquêteur spécialisé des officiers des eaux et forêts[1].
-Le corps a été formé en 1965 par la fusion de trois corps : le corps des ingénieurs des eaux et forêts, le corps des ingénieurs du génie rural et du corps des ingénieurs des services agricoles[2].
-En 2002, le corps des IGREF absorbent le corps des ingénieurs d'agronomie[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première évocation du terme « Eaux et forêts » remonte à 1219 avec l'Ordonnance de Gisors de Philippe Auguste. En 1291, Philippe le Bel précise le rôle d'un enquêteur spécialisé des officiers des eaux et forêts.
+Le corps a été formé en 1965 par la fusion de trois corps : le corps des ingénieurs des eaux et forêts, le corps des ingénieurs du génie rural et du corps des ingénieurs des services agricoles.
+En 2002, le corps des IGREF absorbent le corps des ingénieurs d'agronomie,.
 </t>
         </is>
       </c>
